--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11731\Desktop\miniTerm\myPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32394C0E-8F26-41B5-865B-39F5C3A9E804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842A65F-0819-4867-9405-2F522310C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1280" windowWidth="10060" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11731\Desktop\miniTerm\myPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842A65F-0819-4867-9405-2F522310C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94372B79-CE18-4B60-A3F8-F5DCD9BA0B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11731\Desktop\miniTerm\myPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94372B79-CE18-4B60-A3F8-F5DCD9BA0B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5322A-E814-49C1-B99E-5B7E8B50F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instruction" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
